--- a/02a.xlsx
+++ b/02a.xlsx
@@ -5,28 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{548AA75D-01AB-4C8C-9EE0-4F57215D1188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFD5902-C726-4F0A-BF59-5C0A591F9857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3337" yWindow="2573" windowWidth="28231" windowHeight="15097" xr2:uid="{CE50552C-6DD6-42F5-855E-DEEF77A41DC7}"/>
+    <workbookView xWindow="3337" yWindow="2573" windowWidth="28231" windowHeight="15097" activeTab="1" xr2:uid="{CE50552C-6DD6-42F5-855E-DEEF77A41DC7}"/>
   </bookViews>
   <sheets>
-    <sheet name="ベルヌーイ分布" sheetId="1" r:id="rId1"/>
+    <sheet name="ベルヌーイ分布" sheetId="3" r:id="rId1"/>
     <sheet name="ベルヌーイ分布 (可視化)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">ベルヌーイ分布!$A$3:$B$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">ベルヌーイ分布!$A$4:$B$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">ベルヌーイ分布!$A$5:$B$5</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">ベルヌーイ分布!$A$3:$B$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">ベルヌーイ分布!$A$4:$B$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">ベルヌーイ分布!$A$5:$B$5</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">ベルヌーイ分布!$B$3</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">ベルヌーイ分布!$B$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">ベルヌーイ分布!$B$5</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>k</t>
     <phoneticPr fontId="1"/>
@@ -71,6 +60,10 @@
     <rPh sb="12" eb="14">
       <t>カンスウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -104,7 +97,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +113,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -158,7 +157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,6 +168,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -255,7 +260,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ベルヌーイ分布 (可視化)'!$B$3</c:f>
+              <c:f>'ベルヌーイ分布 (可視化)'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -276,7 +281,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ベルヌーイ分布 (可視化)'!$A$4:$A$5</c:f>
+              <c:f>'ベルヌーイ分布 (可視化)'!$A$6:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -291,7 +296,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ベルヌーイ分布 (可視化)'!$B$4:$B$5</c:f>
+              <c:f>'ベルヌーイ分布 (可視化)'!$B$6:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1416,11 +1421,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494E7BA4-14BF-449D-9C50-DAB4D05C05F3}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32A5AC1-E4A5-4AB5-8F96-DFFEE7EDA5B8}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -1433,27 +1438,36 @@
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <f>1-B5</f>
-        <v>0.7</v>
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A5" s="3">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <f>1-B3</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <f>B3</f>
         <v>0.3</v>
       </c>
     </row>
@@ -1465,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C91E2E-DB10-4C32-A984-40A8109BE86A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -1481,33 +1495,43 @@
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <f>1-B5</f>
-        <v>0.7</v>
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A5" s="3">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <f>1-B3</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <f>B3</f>
         <v>0.3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>